--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Spp1-Itgb5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Spp1-Itgb5.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>209.0063303333334</v>
+        <v>0.3399353333333333</v>
       </c>
       <c r="H2">
-        <v>627.018991</v>
+        <v>1.019806</v>
       </c>
       <c r="I2">
-        <v>0.6751081226665357</v>
+        <v>0.09929991924017606</v>
       </c>
       <c r="J2">
-        <v>0.6751081226665357</v>
+        <v>0.09929991924017606</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.309350333333333</v>
+        <v>8.033114333333334</v>
       </c>
       <c r="N2">
-        <v>24.928051</v>
+        <v>24.099343</v>
       </c>
       <c r="O2">
-        <v>0.1535033474258946</v>
+        <v>0.1374088679258946</v>
       </c>
       <c r="P2">
-        <v>0.1535033474258946</v>
+        <v>0.1374088679258946</v>
       </c>
       <c r="Q2">
-        <v>1736.70682062406</v>
+        <v>2.730739398606445</v>
       </c>
       <c r="R2">
-        <v>15630.36138561654</v>
+        <v>24.576654587458</v>
       </c>
       <c r="S2">
-        <v>0.1036313567037247</v>
+        <v>0.01364468948792535</v>
       </c>
       <c r="T2">
-        <v>0.1036313567037247</v>
+        <v>0.01364468948792535</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>209.0063303333334</v>
+        <v>0.3399353333333333</v>
       </c>
       <c r="H3">
-        <v>627.018991</v>
+        <v>1.019806</v>
       </c>
       <c r="I3">
-        <v>0.6751081226665357</v>
+        <v>0.09929991924017606</v>
       </c>
       <c r="J3">
-        <v>0.6751081226665357</v>
+        <v>0.09929991924017606</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>111.460173</v>
       </c>
       <c r="O3">
-        <v>0.6863556906301786</v>
+        <v>0.6355200716780686</v>
       </c>
       <c r="P3">
-        <v>0.6863556906301785</v>
+        <v>0.6355200716780686</v>
       </c>
       <c r="Q3">
-        <v>7765.293912349494</v>
+        <v>12.62975035404867</v>
       </c>
       <c r="R3">
-        <v>69887.64521114544</v>
+        <v>113.667753186438</v>
       </c>
       <c r="S3">
-        <v>0.4633643017828335</v>
+        <v>0.06310709179314311</v>
       </c>
       <c r="T3">
-        <v>0.4633643017828334</v>
+        <v>0.06310709179314311</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>209.0063303333334</v>
+        <v>0.3399353333333333</v>
       </c>
       <c r="H4">
-        <v>627.018991</v>
+        <v>1.019806</v>
       </c>
       <c r="I4">
-        <v>0.6751081226665357</v>
+        <v>0.09929991924017606</v>
       </c>
       <c r="J4">
-        <v>0.6751081226665357</v>
+        <v>0.09929991924017606</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.668653666666668</v>
+        <v>13.27489133333333</v>
       </c>
       <c r="N4">
-        <v>26.005961</v>
+        <v>39.824674</v>
       </c>
       <c r="O4">
-        <v>0.1601409619439268</v>
+        <v>0.2270710603960369</v>
       </c>
       <c r="P4">
-        <v>0.1601409619439267</v>
+        <v>0.2270710603960369</v>
       </c>
       <c r="Q4">
-        <v>1811.803491800595</v>
+        <v>4.512604610360444</v>
       </c>
       <c r="R4">
-        <v>16306.23142620535</v>
+        <v>40.613441493244</v>
       </c>
       <c r="S4">
-        <v>0.1081124641799776</v>
+        <v>0.0225481379591076</v>
       </c>
       <c r="T4">
-        <v>0.1081124641799775</v>
+        <v>0.0225481379591076</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>4.205225</v>
       </c>
       <c r="I5">
-        <v>0.004527744128790482</v>
+        <v>0.4094685684206303</v>
       </c>
       <c r="J5">
-        <v>0.004527744128790482</v>
+        <v>0.4094685684206303</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.309350333333333</v>
+        <v>8.033114333333334</v>
       </c>
       <c r="N5">
-        <v>24.928051</v>
+        <v>24.099343</v>
       </c>
       <c r="O5">
-        <v>0.1535033474258946</v>
+        <v>0.1374088679258946</v>
       </c>
       <c r="P5">
-        <v>0.1535033474258946</v>
+        <v>0.1374088679258946</v>
       </c>
       <c r="Q5">
-        <v>11.64756258516389</v>
+        <v>11.26035107413055</v>
       </c>
       <c r="R5">
-        <v>104.828063266475</v>
+        <v>101.343159667175</v>
       </c>
       <c r="S5">
-        <v>0.0006950238800572798</v>
+        <v>0.05626461243791551</v>
       </c>
       <c r="T5">
-        <v>0.0006950238800572798</v>
+        <v>0.05626461243791553</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>4.205225</v>
       </c>
       <c r="I6">
-        <v>0.004527744128790482</v>
+        <v>0.4094685684206303</v>
       </c>
       <c r="J6">
-        <v>0.004527744128790482</v>
+        <v>0.4094685684206303</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>111.460173</v>
       </c>
       <c r="O6">
-        <v>0.6863556906301786</v>
+        <v>0.6355200716780686</v>
       </c>
       <c r="P6">
-        <v>0.6863556906301785</v>
+        <v>0.6355200716780686</v>
       </c>
       <c r="Q6">
         <v>52.07945622265832</v>
@@ -818,10 +818,10 @@
         <v>468.7151060039249</v>
       </c>
       <c r="S6">
-        <v>0.003107642948512728</v>
+        <v>0.2602254939525951</v>
       </c>
       <c r="T6">
-        <v>0.003107642948512727</v>
+        <v>0.2602254939525951</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>4.205225</v>
       </c>
       <c r="I7">
-        <v>0.004527744128790482</v>
+        <v>0.4094685684206303</v>
       </c>
       <c r="J7">
-        <v>0.004527744128790482</v>
+        <v>0.4094685684206303</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.668653666666668</v>
+        <v>13.27489133333333</v>
       </c>
       <c r="N7">
-        <v>26.005961</v>
+        <v>39.824674</v>
       </c>
       <c r="O7">
-        <v>0.1601409619439268</v>
+        <v>0.2270710603960369</v>
       </c>
       <c r="P7">
-        <v>0.1601409619439267</v>
+        <v>0.2270710603960369</v>
       </c>
       <c r="Q7">
-        <v>12.15121303846944</v>
+        <v>18.60796830240555</v>
       </c>
       <c r="R7">
-        <v>109.360917346225</v>
+        <v>167.47171472165</v>
       </c>
       <c r="S7">
-        <v>0.0007250773002204744</v>
+        <v>0.0929784620301197</v>
       </c>
       <c r="T7">
-        <v>0.0007250773002204743</v>
+        <v>0.09297846203011971</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>99.18134533333331</v>
+        <v>1.681642333333333</v>
       </c>
       <c r="H8">
-        <v>297.5440359999999</v>
+        <v>5.044927</v>
       </c>
       <c r="I8">
-        <v>0.3203641332046737</v>
+        <v>0.4912315123391937</v>
       </c>
       <c r="J8">
-        <v>0.3203641332046737</v>
+        <v>0.4912315123391937</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.309350333333333</v>
+        <v>8.033114333333334</v>
       </c>
       <c r="N8">
-        <v>24.928051</v>
+        <v>24.099343</v>
       </c>
       <c r="O8">
-        <v>0.1535033474258946</v>
+        <v>0.1374088679258946</v>
       </c>
       <c r="P8">
-        <v>0.1535033474258946</v>
+        <v>0.1374088679258946</v>
       </c>
       <c r="Q8">
-        <v>824.1325449059815</v>
+        <v>13.50882513144011</v>
       </c>
       <c r="R8">
-        <v>7417.192904153835</v>
+        <v>121.579426182961</v>
       </c>
       <c r="S8">
-        <v>0.04917696684211259</v>
+        <v>0.06749956600005372</v>
       </c>
       <c r="T8">
-        <v>0.04917696684211259</v>
+        <v>0.06749956600005373</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>99.18134533333331</v>
+        <v>1.681642333333333</v>
       </c>
       <c r="H9">
-        <v>297.5440359999999</v>
+        <v>5.044927</v>
       </c>
       <c r="I9">
-        <v>0.3203641332046737</v>
+        <v>0.4912315123391937</v>
       </c>
       <c r="J9">
-        <v>0.3203641332046737</v>
+        <v>0.4912315123391937</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>111.460173</v>
       </c>
       <c r="O9">
-        <v>0.6863556906301786</v>
+        <v>0.6355200716780686</v>
       </c>
       <c r="P9">
-        <v>0.6863556906301785</v>
+        <v>0.6355200716780686</v>
       </c>
       <c r="Q9">
-        <v>3684.923303075358</v>
+        <v>62.47871513248567</v>
       </c>
       <c r="R9">
-        <v>33164.30972767822</v>
+        <v>562.308436192371</v>
       </c>
       <c r="S9">
-        <v>0.2198837458988323</v>
+        <v>0.3121874859323304</v>
       </c>
       <c r="T9">
-        <v>0.2198837458988323</v>
+        <v>0.3121874859323304</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>99.18134533333331</v>
+        <v>1.681642333333333</v>
       </c>
       <c r="H10">
-        <v>297.5440359999999</v>
+        <v>5.044927</v>
       </c>
       <c r="I10">
-        <v>0.3203641332046737</v>
+        <v>0.4912315123391937</v>
       </c>
       <c r="J10">
-        <v>0.3203641332046737</v>
+        <v>0.4912315123391937</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.668653666666668</v>
+        <v>13.27489133333333</v>
       </c>
       <c r="N10">
-        <v>26.005961</v>
+        <v>39.824674</v>
       </c>
       <c r="O10">
-        <v>0.1601409619439268</v>
+        <v>0.2270710603960369</v>
       </c>
       <c r="P10">
-        <v>0.1601409619439267</v>
+        <v>0.2270710603960369</v>
       </c>
       <c r="Q10">
-        <v>859.7687328887328</v>
+        <v>22.32361923653312</v>
       </c>
       <c r="R10">
-        <v>7737.918595998595</v>
+        <v>200.912573128798</v>
       </c>
       <c r="S10">
-        <v>0.05130342046372873</v>
+        <v>0.1115444604068096</v>
       </c>
       <c r="T10">
-        <v>0.05130342046372872</v>
+        <v>0.1115444604068096</v>
       </c>
     </row>
   </sheetData>
